--- a/Армяне Типичные Трудовые.xlsx
+++ b/Армяне Типичные Трудовые.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="4650" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,22 +19,52 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
-  <si>
-    <t>равномерное распределение</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>f:</t>
   </si>
   <si>
     <t>-(1/(x-30))</t>
+  </si>
+  <si>
+    <t>http://noev-kovcheg.ru/mag/2006-14/365.html</t>
+  </si>
+  <si>
+    <t>2+sin(x)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>+соображение, что, кажется, ситуация особо не поменялась с тех пор</t>
+  </si>
+  <si>
+    <t>https://www.currenttime.tv/a/28300118.html</t>
+  </si>
+  <si>
+    <t>То есть много сезонных</t>
+  </si>
+  <si>
+    <t>"Преобладают чернорабочие"</t>
+  </si>
+  <si>
+    <t>А ля 36 - ВО, 56 - среднее, ост - специальное?</t>
+  </si>
+  <si>
+    <t>А ещё есть специфика Москвы!</t>
+  </si>
+  <si>
+    <t>http://www.kavkazoved.info/news/2015/04/20/armjane-v-rossii-problemy-i-budni.html</t>
+  </si>
+  <si>
+    <t>На основе анализа ежемесячных данных пассажиропотока Микаэлян отмечает, что увеличились и масштабы сезонной миграции из Армении в Россию, а также сроки нахождения сезонных мигрантов в РФ – если ранее это было в среднем до 60 000 человек в год и полгода, то после 2010 года количество увеличилось до 80 000 и 9 месяцев. «Во многих случаях  после нескольких лет сезонных работ, трудовой мигрант закрепляется в России и начинает предпринимать усилия по перевозке уже собственной семьи в Россию, а в сезонную миграцию вовлекаются уже новые люди. Как правило, период предварительной адаптации занимает около 5 лет», – добавил он. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -42,13 +72,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -63,9 +106,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -346,72 +392,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>0</v>
-      </c>
-      <c r="I1">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1" s="1">
         <f>SUM(A1:H1)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="I2">
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
         <f t="shared" ref="I2:I10" si="0">SUM(A2:H2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3">
+    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
         <v>10</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>25</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="J3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -432,7 +496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -453,7 +517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -471,7 +535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -489,7 +553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -510,7 +574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.9</v>
       </c>
@@ -528,7 +592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.1</v>
       </c>
@@ -549,7 +613,7 @@
         <v>0.85000000000000009</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -558,7 +622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -567,7 +631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -576,7 +640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -585,7 +649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -594,7 +658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0</v>
       </c>
@@ -816,7 +880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>0</v>
       </c>
@@ -837,7 +901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>0</v>
       </c>
@@ -858,43 +922,57 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35">
-        <v>40</v>
-      </c>
-      <c r="D35">
-        <v>65</v>
-      </c>
-      <c r="I35">
+    <row r="35" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="1">
+        <v>18</v>
+      </c>
+      <c r="D35" s="1">
+        <v>37</v>
+      </c>
+      <c r="I35" s="1">
         <f t="shared" si="2"/>
-        <v>106</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>0</v>
-      </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36">
+        <v>55</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>0</v>
+      </c>
+      <c r="B36" s="1">
+        <v>56</v>
+      </c>
+      <c r="C36" s="1">
+        <v>10</v>
+      </c>
+      <c r="D36" s="1">
+        <v>36</v>
+      </c>
+      <c r="E36" s="1">
         <v>3</v>
       </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="I36">
+      <c r="I36" s="1">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>105</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F38" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Армяне Типичные Трудовые.xlsx
+++ b/Армяне Типичные Трудовые.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="4650" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="5580" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>f:</t>
   </si>
@@ -58,6 +58,15 @@
   </si>
   <si>
     <t>На основе анализа ежемесячных данных пассажиропотока Микаэлян отмечает, что увеличились и масштабы сезонной миграции из Армении в Россию, а также сроки нахождения сезонных мигрантов в РФ – если ранее это было в среднем до 60 000 человек в год и полгода, то после 2010 года количество увеличилось до 80 000 и 9 месяцев. «Во многих случаях  после нескольких лет сезонных работ, трудовой мигрант закрепляется в России и начинает предпринимать усилия по перевозке уже собственной семьи в Россию, а в сезонную миграцию вовлекаются уже новые люди. Как правило, период предварительной адаптации занимает около 5 лет», – добавил он. </t>
+  </si>
+  <si>
+    <t>http://www.carim-east.eu/media/CARIM-East-RR-2013-07_RU.pdf</t>
+  </si>
+  <si>
+    <t>Очень много интересных данных. А я ещё не хотелось бы светиться с этой диссертацией перед специалистами...</t>
+  </si>
+  <si>
+    <t>http://www.yerkramas.org/article/18066/chem-zanimayutsya-armyane-za-predelami-armenii</t>
   </si>
 </sst>
 </file>
@@ -395,10 +404,13 @@
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="11" width="35.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
@@ -434,6 +446,15 @@
       <c r="I2" s="1">
         <f t="shared" ref="I2:I10" si="0">SUM(A2:H2)</f>
         <v>1</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
